--- a/releases/ADCS-PCB-REV-B/MOBO_REV_B/01 Bill of Materials/MOBO_BOM_REV_B.xlsx
+++ b/releases/ADCS-PCB-REV-B/MOBO_REV_B/01 Bill of Materials/MOBO_BOM_REV_B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasper Grant\Documents\EAGLE\projects\CubeSat-ADCS-Hardware\releases\ADCS-PCB-REV-B\MOBO_REV_B\01 Bill of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA5FAE5-657D-4EFD-AB14-E32FA3EF9DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E729BB-81C7-4A21-B610-C74D3F7BBB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="408" yWindow="3096" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADCS Motherboard" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="197">
   <si>
     <t>Qty</t>
   </si>
@@ -56,30 +56,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>1X02</t>
-  </si>
-  <si>
-    <t>J2, J4</t>
-  </si>
-  <si>
     <t>LED1, LED2, LED3</t>
   </si>
   <si>
-    <t>1X03</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>PIN HEADER</t>
-  </si>
-  <si>
-    <t>1X06</t>
-  </si>
-  <si>
     <t>0.1u</t>
   </si>
   <si>
@@ -194,15 +173,6 @@
     <t>R3, R5</t>
   </si>
   <si>
-    <t>32.768kHz</t>
-  </si>
-  <si>
-    <t>MS3V-T1R</t>
-  </si>
-  <si>
-    <t>Y1, Y3</t>
-  </si>
-  <si>
     <t>4.7k</t>
   </si>
   <si>
@@ -242,78 +212,15 @@
     <t>R32</t>
   </si>
   <si>
-    <t>ADS7841E_2K5</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>ARDUCAM_OV5642</t>
-  </si>
-  <si>
-    <t>A1, A2</t>
-  </si>
-  <si>
-    <t>BMX160</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>BNO055</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>BSR802NL6327HTSA1</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
     <t>CNC_3221-10-0300-00</t>
   </si>
   <si>
-    <t>Y2</t>
-  </si>
-  <si>
-    <t>DMC4050SSDQ-13</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>HMC1053</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>MSP430F5529IPN</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>TE-1734829-3</t>
   </si>
   <si>
     <t>J7</t>
   </si>
   <si>
-    <t>TSV991AILT</t>
-  </si>
-  <si>
-    <t>U2, U4, U10</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -350,9 +257,6 @@
     <t>0603</t>
   </si>
   <si>
-    <t>DO NOT INSTALL</t>
-  </si>
-  <si>
     <t>Green 569nm LED Indication - Discrete 2.1V 0603 (1608 Metric)</t>
   </si>
   <si>
@@ -363,57 +267,6 @@
   </si>
   <si>
     <t xml:space="preserve">Part can be sustituted for other general 0603 LED </t>
-  </si>
-  <si>
-    <t>8-SOIC</t>
-  </si>
-  <si>
-    <t>SOT23-3</t>
-  </si>
-  <si>
-    <t>ADS7841E/2K5</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>DMC4050SSDQ-13DICT-ND</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Diodes%20PDFs/DMC4050SSDQ_Web.pdf</t>
-  </si>
-  <si>
-    <t>Diodes Incorporated</t>
-  </si>
-  <si>
-    <t>Mosfet Array N and P-Channel Complementary 40V 5.3A 1.8W Surface Mount 8-SO</t>
-  </si>
-  <si>
-    <t>Bosch Sensortec</t>
-  </si>
-  <si>
-    <t>https://www.bosch-sensortec.com/media/boschsensortec/downloads/datasheets/bst-bmx160-ds0001.pdf</t>
-  </si>
-  <si>
-    <t>Accelerometer, Gyroscope, 9 Axis Sensor I²C, SPI Output</t>
-  </si>
-  <si>
-    <t>828-1087-1-ND</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>Infineon Technologies</t>
-  </si>
-  <si>
-    <t>N-Channel 20 V 3.7A (Ta) 500mW (Ta) Surface Mount PG-SC59-3</t>
-  </si>
-  <si>
-    <t>BSR802NL6327HTSA1CT-ND</t>
-  </si>
-  <si>
-    <t>https://www.infineon.com/dgdl/BSR802N_Rev2.1.pdf?folderId=db3a3043156fd573011622e10b5c1f67&amp;fileId=db3a30431b0626df011b129302297bc1</t>
   </si>
   <si>
     <t>R36, R37</t>
@@ -448,114 +301,9 @@
     <t>R19, R33, R34, R35, R38, R39, R42, R43, R45, R46, R47, R48, R49, R50, R51, R52, R53, R54, R55, R57, R58</t>
   </si>
   <si>
-    <t>DO NOT INSTALL - Only Y1 populated by DSS post-fabrication</t>
-  </si>
-  <si>
-    <t>DO NOT INSTALL - BNO055 not populated on this rev</t>
-  </si>
-  <si>
-    <t>STMicroelectronics</t>
-  </si>
-  <si>
-    <t>General Purpose Amplifier 1 Circuit Rail-to-Rail SOT-23-5</t>
-  </si>
-  <si>
-    <t>SOT-23-5</t>
-  </si>
-  <si>
-    <t>Honeywell Aerospace</t>
-  </si>
-  <si>
-    <t>16-LCC</t>
-  </si>
-  <si>
-    <t>Magnetoresistive Sensor X, Y, Z Axis 16-LCC (7.37x7.37)</t>
-  </si>
-  <si>
-    <t>342-1035-5-ND</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Honeywell%20PDFs/HMC1051,52,53.pdf</t>
-  </si>
-  <si>
-    <t>80-LQFP</t>
-  </si>
-  <si>
-    <t>CPUXV2 series Microcontroller IC 16-Bit 25MHz 128KB (128K x 8) FLASH 80-LQFP (12x12)</t>
-  </si>
-  <si>
-    <t>296-25427-ND</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/general/docs/suppproductinfo.tsp?distId=10&amp;gotoUrl=http%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Fmsp430f5529</t>
-  </si>
-  <si>
-    <t>1x10</t>
-  </si>
-  <si>
-    <t>497-5833-1-ND</t>
-  </si>
-  <si>
-    <t>https://www.st.com/content/ccc/resource/technical/document/datasheet/d8/e3/a5/aa/8f/d7/42/67/CD00144611.pdf/files/CD00144611.pdf/jcr:content/translations/en.CD00144611.pdf</t>
-  </si>
-  <si>
-    <t>12 Bit Analog to Digital Converter 4 Input 1 SAR 16-SSOP</t>
-  </si>
-  <si>
-    <t>296-25900-1-ND</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/general/docs/suppproductinfo.tsp?distId=10&amp;gotoUrl=http%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Fads7841</t>
-  </si>
-  <si>
-    <t>16-SOP</t>
-  </si>
-  <si>
-    <t>Accelerometer, Gyroscope, Magnetometer, 9 Axis Sensor I²C, UART Output</t>
-  </si>
-  <si>
-    <t>828-1058-1-ND</t>
-  </si>
-  <si>
-    <t>https://www.bosch-sensortec.com/media/boschsensortec/downloads/datasheets/bst-bno055-ds000.pdf</t>
-  </si>
-  <si>
-    <t>28-LGA</t>
-  </si>
-  <si>
-    <t>14-QFN</t>
-  </si>
-  <si>
     <t>Murata Electronics</t>
   </si>
   <si>
-    <t>CSTCR4M00G55-R0</t>
-  </si>
-  <si>
-    <t>490-5996-1-ND</t>
-  </si>
-  <si>
-    <t>4 MHz Ceramic Resonator Built in Capacitor 39 pF - 60 Ohms -20°C ~ 80°C Surface Mount</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/~/media/webrenewal/support/library/catalog/products/timingdevice/ceralock/p16e.ashx</t>
-  </si>
-  <si>
-    <t>Micro Crystal AG</t>
-  </si>
-  <si>
-    <t>±20ppm Crystal 7pF Cylindrical Can, Radial</t>
-  </si>
-  <si>
-    <t>2195-MS3V-T1R-32.768KHZ-7PF-20PPM-TA-QC-AUCT-ND</t>
-  </si>
-  <si>
-    <t>https://www.microcrystal.com/fileadmin/Media/Products/32kHz/Datasheet/MS3V-T1R.pdf</t>
-  </si>
-  <si>
     <t>1734829-3</t>
   </si>
   <si>
@@ -586,30 +334,6 @@
     <t>http://www.cnctech.us/idcmatching2.pdf</t>
   </si>
   <si>
-    <t>Omron Electronics Inc-EMC Div</t>
-  </si>
-  <si>
-    <t>B3F-1020</t>
-  </si>
-  <si>
-    <t>Tactile Switch SPST-NO Top Actuated Through Hole</t>
-  </si>
-  <si>
-    <t>SW402-ND</t>
-  </si>
-  <si>
-    <t>https://omronfs.omron.com/en_US/ecb/products/pdf/en-b3f.pdf</t>
-  </si>
-  <si>
-    <t>Camera Modules</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>ArduCam</t>
-  </si>
-  <si>
     <t>RC0402FR-0747KL</t>
   </si>
   <si>
@@ -934,19 +658,7 @@
     <t>https://datasheets.avx.com/F93.pdf</t>
   </si>
   <si>
-    <t>2X06</t>
-  </si>
-  <si>
-    <t>JP2A, JP2B</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
     <t>J5</t>
-  </si>
-  <si>
-    <t>JP1, J3</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1156,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="L49" sqref="A40:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,68 +1177,47 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>40</v>
-      </c>
-      <c r="B2" s="8">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>178</v>
-      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
@@ -1536,31 +1227,31 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>266</v>
+        <v>174</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="K3" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1571,31 +1262,31 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="I4" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="J4" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="K4" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1606,31 +1297,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="K5" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1641,31 +1332,31 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="I6" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1676,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="K7"/>
     </row>
@@ -1709,31 +1400,31 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1744,31 +1435,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c r="I9" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="J9" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="K9" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1779,31 +1470,31 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="I10" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1814,31 +1505,31 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="I11" t="s">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1849,31 +1540,31 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>273</v>
+        <v>181</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1884,31 +1575,31 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="I13" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="J13" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1919,90 +1610,54 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="I14" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>47</v>
-      </c>
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
@@ -2012,59 +1667,39 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>291</v>
+        <v>196</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>3</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -2074,118 +1709,60 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>6</v>
-      </c>
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>5</v>
-      </c>
-      <c r="B21" s="8">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8">
-        <v>1</v>
-      </c>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
@@ -2195,67 +1772,45 @@
         <v>3</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>43</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>101</v>
-      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
@@ -2265,31 +1820,31 @@
         <v>3</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>269</v>
+        <v>177</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>271</v>
+        <v>179</v>
       </c>
       <c r="K25" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -2300,31 +1855,31 @@
         <v>1</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>257</v>
+        <v>165</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -2335,31 +1890,31 @@
         <v>1</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="K27" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -2370,31 +1925,31 @@
         <v>1</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="K28" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -2405,31 +1960,31 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="I29" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="K29" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2440,31 +1995,31 @@
         <v>1</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="K30" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -2475,31 +2030,31 @@
         <v>2</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="K31" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -2510,31 +2065,31 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>273</v>
+        <v>181</v>
       </c>
       <c r="K32" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -2545,31 +2100,31 @@
         <v>2</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="K33" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2580,31 +2135,31 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="I34" t="s">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="J34" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="K34" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2615,31 +2170,31 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="I35" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="J35" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2650,31 +2205,31 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="I36" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="J36" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2685,31 +2240,31 @@
         <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>237</v>
+        <v>145</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="I37" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="J37" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -2720,31 +2275,31 @@
         <v>6</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2755,384 +2310,122 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="I39" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="J39" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
-        <v>50</v>
-      </c>
-      <c r="B40" s="8">
-        <v>1</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
-        <v>49</v>
-      </c>
-      <c r="B41" s="8">
-        <v>1</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
-        <v>52</v>
-      </c>
-      <c r="B42" s="8">
-        <v>3</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
-        <v>39</v>
-      </c>
-      <c r="B43" s="8">
-        <v>1</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I43" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
-        <v>46</v>
-      </c>
-      <c r="B44" s="8">
-        <v>1</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
-        <v>42</v>
-      </c>
-      <c r="B45" s="8">
-        <v>1</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
-        <v>48</v>
-      </c>
-      <c r="B46" s="8">
-        <v>1</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
-        <v>41</v>
-      </c>
-      <c r="B47" s="8">
-        <v>1</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>101</v>
-      </c>
+    </row>
+    <row r="40" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="12"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="12"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
-        <v>30</v>
-      </c>
-      <c r="B48" s="8">
-        <v>2</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
-        <v>45</v>
-      </c>
-      <c r="B49" s="8">
-        <v>1</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="5:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="3"/>
+      <c r="F49" s="14"/>
+      <c r="H49" s="12"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
